--- a/stimuli/TNR20text1Keym.xlsx
+++ b/stimuli/TNR20text1Keym.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\RS_dyslexia\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA65F35F-43FD-4101-8F0C-6913D2A348CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71294F85-A6E7-49D4-AAC7-16CDAC9084AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:G824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>153</v>
       </c>
       <c r="G259">
-        <f t="shared" ref="G259:G300" si="4">D259-C259</f>
+        <f t="shared" ref="G259:G322" si="4">D259-C259</f>
         <v>9</v>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7768,6 +7768,10 @@
       <c r="F301">
         <v>153</v>
       </c>
+      <c r="G301">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
@@ -7788,6 +7792,10 @@
       <c r="F302">
         <v>153</v>
       </c>
+      <c r="G302">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
@@ -7808,6 +7816,10 @@
       <c r="F303">
         <v>153</v>
       </c>
+      <c r="G303">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
@@ -7828,8 +7840,12 @@
       <c r="F304">
         <v>153</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G304">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7848,8 +7864,12 @@
       <c r="F305">
         <v>153</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G305">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7868,8 +7888,12 @@
       <c r="F306">
         <v>153</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G306">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7888,8 +7912,12 @@
       <c r="F307">
         <v>153</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G307">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7908,8 +7936,12 @@
       <c r="F308">
         <v>153</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G308">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7928,8 +7960,12 @@
       <c r="F309">
         <v>153</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G309">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7948,8 +7984,12 @@
       <c r="F310">
         <v>153</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G310">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7968,8 +8008,12 @@
       <c r="F311">
         <v>153</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G311">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7988,8 +8032,12 @@
       <c r="F312">
         <v>153</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8008,8 +8056,12 @@
       <c r="F313">
         <v>153</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G313">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -8028,8 +8080,12 @@
       <c r="F314">
         <v>153</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G314">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -8048,8 +8104,12 @@
       <c r="F315">
         <v>153</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G315">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -8068,8 +8128,12 @@
       <c r="F316">
         <v>153</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G316">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -8088,8 +8152,12 @@
       <c r="F317">
         <v>153</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -8108,8 +8176,12 @@
       <c r="F318">
         <v>153</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G318">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -8128,8 +8200,12 @@
       <c r="F319">
         <v>153</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G319">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -8148,8 +8224,12 @@
       <c r="F320">
         <v>153</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G320">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -8168,8 +8248,12 @@
       <c r="F321">
         <v>153</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G321">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -8188,8 +8272,12 @@
       <c r="F322">
         <v>176</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -8208,8 +8296,12 @@
       <c r="F323">
         <v>176</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G323">
+        <f t="shared" ref="G323:G386" si="5">D323-C323</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -8228,8 +8320,12 @@
       <c r="F324">
         <v>176</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G324">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -8248,8 +8344,12 @@
       <c r="F325">
         <v>176</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -8268,8 +8368,12 @@
       <c r="F326">
         <v>176</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -8288,8 +8392,12 @@
       <c r="F327">
         <v>176</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G327">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -8308,8 +8416,12 @@
       <c r="F328">
         <v>176</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G328">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -8328,8 +8440,12 @@
       <c r="F329">
         <v>176</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G329">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -8348,8 +8464,12 @@
       <c r="F330">
         <v>176</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G330">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8368,8 +8488,12 @@
       <c r="F331">
         <v>176</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G331">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8388,8 +8512,12 @@
       <c r="F332">
         <v>176</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G332">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8408,8 +8536,12 @@
       <c r="F333">
         <v>176</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G333">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8428,8 +8560,12 @@
       <c r="F334">
         <v>176</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G334">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8448,8 +8584,12 @@
       <c r="F335">
         <v>176</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G335">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8468,8 +8608,12 @@
       <c r="F336">
         <v>176</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G336">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8488,8 +8632,12 @@
       <c r="F337">
         <v>176</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G337">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8508,8 +8656,12 @@
       <c r="F338">
         <v>176</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G338">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8528,8 +8680,12 @@
       <c r="F339">
         <v>176</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G339">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8548,8 +8704,12 @@
       <c r="F340">
         <v>176</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G340">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8568,8 +8728,12 @@
       <c r="F341">
         <v>176</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G341">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8588,8 +8752,12 @@
       <c r="F342">
         <v>176</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G342">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8608,8 +8776,12 @@
       <c r="F343">
         <v>176</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G343">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8628,8 +8800,12 @@
       <c r="F344">
         <v>176</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G344">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8648,8 +8824,12 @@
       <c r="F345">
         <v>176</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G345">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8668,8 +8848,12 @@
       <c r="F346">
         <v>176</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G346">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8688,8 +8872,12 @@
       <c r="F347">
         <v>176</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G347">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8708,8 +8896,12 @@
       <c r="F348">
         <v>176</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8728,8 +8920,12 @@
       <c r="F349">
         <v>176</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G349">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8748,8 +8944,12 @@
       <c r="F350">
         <v>176</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G350">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8768,8 +8968,12 @@
       <c r="F351">
         <v>176</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G351">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8788,8 +8992,12 @@
       <c r="F352">
         <v>176</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G352">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8808,8 +9016,12 @@
       <c r="F353">
         <v>176</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G353">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8828,8 +9040,12 @@
       <c r="F354">
         <v>176</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G354">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8848,8 +9064,12 @@
       <c r="F355">
         <v>176</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G355">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8868,8 +9088,12 @@
       <c r="F356">
         <v>176</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G356">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8888,8 +9112,12 @@
       <c r="F357">
         <v>176</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G357">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8908,8 +9136,12 @@
       <c r="F358">
         <v>176</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G358">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8928,8 +9160,12 @@
       <c r="F359">
         <v>176</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G359">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8948,8 +9184,12 @@
       <c r="F360">
         <v>176</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G360">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8968,8 +9208,12 @@
       <c r="F361">
         <v>176</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G361">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8988,8 +9232,12 @@
       <c r="F362">
         <v>176</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G362">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -9008,8 +9256,12 @@
       <c r="F363">
         <v>176</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G363">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -9028,8 +9280,12 @@
       <c r="F364">
         <v>176</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G364">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -9048,8 +9304,12 @@
       <c r="F365">
         <v>176</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G365">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -9068,8 +9328,12 @@
       <c r="F366">
         <v>176</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G366">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -9088,8 +9352,12 @@
       <c r="F367">
         <v>176</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G367">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -9108,8 +9376,12 @@
       <c r="F368">
         <v>176</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G368">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -9128,8 +9400,12 @@
       <c r="F369">
         <v>176</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G369">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -9148,8 +9424,12 @@
       <c r="F370">
         <v>176</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G370">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -9168,8 +9448,12 @@
       <c r="F371">
         <v>176</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G371">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -9188,8 +9472,12 @@
       <c r="F372">
         <v>176</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G372">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -9208,8 +9496,12 @@
       <c r="F373">
         <v>176</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G373">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -9228,8 +9520,12 @@
       <c r="F374">
         <v>176</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G374">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9248,8 +9544,12 @@
       <c r="F375">
         <v>176</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G375">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9268,8 +9568,12 @@
       <c r="F376">
         <v>176</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G376">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9288,8 +9592,12 @@
       <c r="F377">
         <v>176</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G377">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9308,8 +9616,12 @@
       <c r="F378">
         <v>176</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G378">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9328,8 +9640,12 @@
       <c r="F379">
         <v>176</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G379">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9348,8 +9664,12 @@
       <c r="F380">
         <v>176</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G380">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9368,8 +9688,12 @@
       <c r="F381">
         <v>176</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G381">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9388,8 +9712,12 @@
       <c r="F382">
         <v>176</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G382">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9408,8 +9736,12 @@
       <c r="F383">
         <v>176</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G383">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9428,8 +9760,12 @@
       <c r="F384">
         <v>176</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G384">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9448,8 +9784,12 @@
       <c r="F385">
         <v>176</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G385">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9468,8 +9808,12 @@
       <c r="F386">
         <v>176</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G386">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9488,8 +9832,12 @@
       <c r="F387">
         <v>176</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G387">
+        <f t="shared" ref="G387:G450" si="6">D387-C387</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9508,8 +9856,12 @@
       <c r="F388">
         <v>176</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G388">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9528,8 +9880,12 @@
       <c r="F389">
         <v>176</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G389">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9548,8 +9904,12 @@
       <c r="F390">
         <v>176</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G390">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9568,8 +9928,12 @@
       <c r="F391">
         <v>176</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G391">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9588,8 +9952,12 @@
       <c r="F392">
         <v>176</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G392">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9608,8 +9976,12 @@
       <c r="F393">
         <v>176</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G393">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9628,8 +10000,12 @@
       <c r="F394">
         <v>176</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G394">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9648,8 +10024,12 @@
       <c r="F395">
         <v>176</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G395">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9668,8 +10048,12 @@
       <c r="F396">
         <v>176</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G396">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9688,8 +10072,12 @@
       <c r="F397">
         <v>176</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G397">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9708,8 +10096,12 @@
       <c r="F398">
         <v>176</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G398">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9728,8 +10120,12 @@
       <c r="F399">
         <v>176</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G399">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9748,8 +10144,12 @@
       <c r="F400">
         <v>176</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G400">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9768,8 +10168,12 @@
       <c r="F401">
         <v>176</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G401">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9788,8 +10192,12 @@
       <c r="F402">
         <v>199</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G402">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9808,8 +10216,12 @@
       <c r="F403">
         <v>199</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G403">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9828,8 +10240,12 @@
       <c r="F404">
         <v>199</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G404">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9848,8 +10264,12 @@
       <c r="F405">
         <v>199</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G405">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9868,8 +10288,12 @@
       <c r="F406">
         <v>199</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G406">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9888,8 +10312,12 @@
       <c r="F407">
         <v>199</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G407">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9908,8 +10336,12 @@
       <c r="F408">
         <v>199</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G408">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9928,8 +10360,12 @@
       <c r="F409">
         <v>199</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G409">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9948,8 +10384,12 @@
       <c r="F410">
         <v>199</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G410">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9968,8 +10408,12 @@
       <c r="F411">
         <v>199</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G411">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9988,8 +10432,12 @@
       <c r="F412">
         <v>199</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G412">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -10008,8 +10456,12 @@
       <c r="F413">
         <v>199</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G413">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -10028,8 +10480,12 @@
       <c r="F414">
         <v>199</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G414">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -10048,8 +10504,12 @@
       <c r="F415">
         <v>199</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G415">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -10068,8 +10528,12 @@
       <c r="F416">
         <v>199</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G416">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -10088,8 +10552,12 @@
       <c r="F417">
         <v>199</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G417">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10108,8 +10576,12 @@
       <c r="F418">
         <v>199</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G418">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10128,8 +10600,12 @@
       <c r="F419">
         <v>199</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G419">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10148,8 +10624,12 @@
       <c r="F420">
         <v>199</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G420">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10168,8 +10648,12 @@
       <c r="F421">
         <v>199</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G421">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10188,8 +10672,12 @@
       <c r="F422">
         <v>199</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G422">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10208,8 +10696,12 @@
       <c r="F423">
         <v>199</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G423">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10228,8 +10720,12 @@
       <c r="F424">
         <v>199</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G424">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10248,8 +10744,12 @@
       <c r="F425">
         <v>199</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G425">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10268,8 +10768,12 @@
       <c r="F426">
         <v>199</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G426">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10288,8 +10792,12 @@
       <c r="F427">
         <v>199</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G427">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10308,8 +10816,12 @@
       <c r="F428">
         <v>199</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G428">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10328,8 +10840,12 @@
       <c r="F429">
         <v>199</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G429">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10348,8 +10864,12 @@
       <c r="F430">
         <v>199</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G430">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10368,8 +10888,12 @@
       <c r="F431">
         <v>199</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G431">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10388,8 +10912,12 @@
       <c r="F432">
         <v>199</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G432">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10408,8 +10936,12 @@
       <c r="F433">
         <v>199</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G433">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10428,8 +10960,12 @@
       <c r="F434">
         <v>199</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G434">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10448,8 +10984,12 @@
       <c r="F435">
         <v>199</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G435">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10468,8 +11008,12 @@
       <c r="F436">
         <v>199</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G436">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10488,8 +11032,12 @@
       <c r="F437">
         <v>199</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G437">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10508,8 +11056,12 @@
       <c r="F438">
         <v>199</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G438">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10528,8 +11080,12 @@
       <c r="F439">
         <v>199</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G439">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10548,8 +11104,12 @@
       <c r="F440">
         <v>199</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G440">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10568,8 +11128,12 @@
       <c r="F441">
         <v>199</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G441">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10588,8 +11152,12 @@
       <c r="F442">
         <v>199</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G442">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10608,8 +11176,12 @@
       <c r="F443">
         <v>199</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G443">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10628,8 +11200,12 @@
       <c r="F444">
         <v>199</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G444">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10648,8 +11224,12 @@
       <c r="F445">
         <v>199</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G445">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10668,8 +11248,12 @@
       <c r="F446">
         <v>199</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G446">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10688,8 +11272,12 @@
       <c r="F447">
         <v>199</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G447">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10708,8 +11296,12 @@
       <c r="F448">
         <v>199</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G448">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10728,8 +11320,12 @@
       <c r="F449">
         <v>199</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G449">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10748,8 +11344,12 @@
       <c r="F450">
         <v>199</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G450">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10768,8 +11368,12 @@
       <c r="F451">
         <v>199</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G451">
+        <f t="shared" ref="G451:G514" si="7">D451-C451</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10788,8 +11392,12 @@
       <c r="F452">
         <v>199</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G452">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10808,8 +11416,12 @@
       <c r="F453">
         <v>199</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G453">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10828,8 +11440,12 @@
       <c r="F454">
         <v>199</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G454">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10848,8 +11464,12 @@
       <c r="F455">
         <v>199</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G455">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10868,8 +11488,12 @@
       <c r="F456">
         <v>199</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G456">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10888,8 +11512,12 @@
       <c r="F457">
         <v>199</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G457">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10908,8 +11536,12 @@
       <c r="F458">
         <v>199</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G458">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10928,8 +11560,12 @@
       <c r="F459">
         <v>199</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G459">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10948,8 +11584,12 @@
       <c r="F460">
         <v>199</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G460">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10968,8 +11608,12 @@
       <c r="F461">
         <v>199</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G461">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -10988,8 +11632,12 @@
       <c r="F462">
         <v>199</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G462">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11008,8 +11656,12 @@
       <c r="F463">
         <v>199</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G463">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11028,8 +11680,12 @@
       <c r="F464">
         <v>199</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G464">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11048,8 +11704,12 @@
       <c r="F465">
         <v>199</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G465">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11068,8 +11728,12 @@
       <c r="F466">
         <v>199</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G466">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11088,8 +11752,12 @@
       <c r="F467">
         <v>199</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G467">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11108,8 +11776,12 @@
       <c r="F468">
         <v>199</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G468">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11128,8 +11800,12 @@
       <c r="F469">
         <v>199</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G469">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11148,8 +11824,12 @@
       <c r="F470">
         <v>199</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G470">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11168,8 +11848,12 @@
       <c r="F471">
         <v>199</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G471">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11188,8 +11872,12 @@
       <c r="F472">
         <v>199</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G472">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11208,8 +11896,12 @@
       <c r="F473">
         <v>199</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G473">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11228,8 +11920,12 @@
       <c r="F474">
         <v>199</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G474">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11248,8 +11944,12 @@
       <c r="F475">
         <v>199</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G475">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11268,8 +11968,12 @@
       <c r="F476">
         <v>199</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G476">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11288,8 +11992,12 @@
       <c r="F477">
         <v>199</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G477">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11308,8 +12016,12 @@
       <c r="F478">
         <v>199</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G478">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11328,8 +12040,12 @@
       <c r="F479">
         <v>199</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G479">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11348,8 +12064,12 @@
       <c r="F480">
         <v>199</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G480">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11368,8 +12088,12 @@
       <c r="F481">
         <v>199</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G481">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11388,8 +12112,12 @@
       <c r="F482">
         <v>199</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G482">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11408,8 +12136,12 @@
       <c r="F483">
         <v>199</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G483">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11428,8 +12160,12 @@
       <c r="F484">
         <v>199</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G484">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11448,8 +12184,12 @@
       <c r="F485">
         <v>199</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G485">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11468,8 +12208,12 @@
       <c r="F486">
         <v>199</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G486">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11488,8 +12232,12 @@
       <c r="F487">
         <v>199</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G487">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11508,8 +12256,12 @@
       <c r="F488">
         <v>222</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G488">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11528,8 +12280,12 @@
       <c r="F489">
         <v>222</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G489">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11548,8 +12304,12 @@
       <c r="F490">
         <v>222</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G490">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11568,8 +12328,12 @@
       <c r="F491">
         <v>222</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G491">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11588,8 +12352,12 @@
       <c r="F492">
         <v>222</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G492">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11608,8 +12376,12 @@
       <c r="F493">
         <v>222</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G493">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11628,8 +12400,12 @@
       <c r="F494">
         <v>222</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G494">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11648,8 +12424,12 @@
       <c r="F495">
         <v>222</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G495">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11668,8 +12448,12 @@
       <c r="F496">
         <v>222</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G496">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11688,8 +12472,12 @@
       <c r="F497">
         <v>222</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G497">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11708,8 +12496,12 @@
       <c r="F498">
         <v>222</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G498">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11728,8 +12520,12 @@
       <c r="F499">
         <v>222</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G499">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11748,8 +12544,12 @@
       <c r="F500">
         <v>222</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G500">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11768,8 +12568,12 @@
       <c r="F501">
         <v>222</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G501">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11788,8 +12592,12 @@
       <c r="F502">
         <v>222</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G502">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11808,8 +12616,12 @@
       <c r="F503">
         <v>222</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G503">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11828,8 +12640,12 @@
       <c r="F504">
         <v>222</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G504">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -11848,8 +12664,12 @@
       <c r="F505">
         <v>222</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G505">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -11868,8 +12688,12 @@
       <c r="F506">
         <v>222</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G506">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -11888,8 +12712,12 @@
       <c r="F507">
         <v>222</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G507">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -11908,8 +12736,12 @@
       <c r="F508">
         <v>222</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G508">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -11928,8 +12760,12 @@
       <c r="F509">
         <v>222</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G509">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -11948,8 +12784,12 @@
       <c r="F510">
         <v>222</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G510">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -11968,8 +12808,12 @@
       <c r="F511">
         <v>222</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G511">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -11988,8 +12832,12 @@
       <c r="F512">
         <v>222</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G512">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12008,8 +12856,12 @@
       <c r="F513">
         <v>222</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G513">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -12028,8 +12880,12 @@
       <c r="F514">
         <v>222</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G514">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -12048,8 +12904,12 @@
       <c r="F515">
         <v>222</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G515">
+        <f t="shared" ref="G515:G578" si="8">D515-C515</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12068,8 +12928,12 @@
       <c r="F516">
         <v>222</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G516">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12088,8 +12952,12 @@
       <c r="F517">
         <v>222</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G517">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -12108,8 +12976,12 @@
       <c r="F518">
         <v>222</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G518">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12128,8 +13000,12 @@
       <c r="F519">
         <v>222</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G519">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12148,8 +13024,12 @@
       <c r="F520">
         <v>222</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G520">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12168,8 +13048,12 @@
       <c r="F521">
         <v>222</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G521">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12188,8 +13072,12 @@
       <c r="F522">
         <v>222</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G522">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12208,8 +13096,12 @@
       <c r="F523">
         <v>222</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G523">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12228,8 +13120,12 @@
       <c r="F524">
         <v>222</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G524">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12248,8 +13144,12 @@
       <c r="F525">
         <v>222</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G525">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12268,8 +13168,12 @@
       <c r="F526">
         <v>222</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G526">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12288,8 +13192,12 @@
       <c r="F527">
         <v>222</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G527">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12308,8 +13216,12 @@
       <c r="F528">
         <v>222</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G528">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12328,8 +13240,12 @@
       <c r="F529">
         <v>222</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G529">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12348,8 +13264,12 @@
       <c r="F530">
         <v>222</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G530">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12368,8 +13288,12 @@
       <c r="F531">
         <v>222</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G531">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12388,8 +13312,12 @@
       <c r="F532">
         <v>222</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G532">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12408,8 +13336,12 @@
       <c r="F533">
         <v>222</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G533">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12428,8 +13360,12 @@
       <c r="F534">
         <v>222</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G534">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12448,8 +13384,12 @@
       <c r="F535">
         <v>222</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G535">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12468,8 +13408,12 @@
       <c r="F536">
         <v>222</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G536">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12488,8 +13432,12 @@
       <c r="F537">
         <v>222</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G537">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12508,8 +13456,12 @@
       <c r="F538">
         <v>222</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G538">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12528,8 +13480,12 @@
       <c r="F539">
         <v>222</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G539">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12548,8 +13504,12 @@
       <c r="F540">
         <v>222</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G540">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12568,8 +13528,12 @@
       <c r="F541">
         <v>222</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G541">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12588,8 +13552,12 @@
       <c r="F542">
         <v>222</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G542">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12608,8 +13576,12 @@
       <c r="F543">
         <v>222</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G543">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12628,8 +13600,12 @@
       <c r="F544">
         <v>222</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G544">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12648,8 +13624,12 @@
       <c r="F545">
         <v>222</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G545">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12668,8 +13648,12 @@
       <c r="F546">
         <v>222</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G546">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12688,8 +13672,12 @@
       <c r="F547">
         <v>222</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G547">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12708,8 +13696,12 @@
       <c r="F548">
         <v>222</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G548">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -12728,8 +13720,12 @@
       <c r="F549">
         <v>222</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G549">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -12748,8 +13744,12 @@
       <c r="F550">
         <v>222</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G550">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -12768,8 +13768,12 @@
       <c r="F551">
         <v>222</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G551">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -12788,8 +13792,12 @@
       <c r="F552">
         <v>222</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G552">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -12808,8 +13816,12 @@
       <c r="F553">
         <v>222</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G553">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -12828,8 +13840,12 @@
       <c r="F554">
         <v>222</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G554">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -12848,8 +13864,12 @@
       <c r="F555">
         <v>222</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G555">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -12868,8 +13888,12 @@
       <c r="F556">
         <v>222</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G556">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -12888,8 +13912,12 @@
       <c r="F557">
         <v>222</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G557">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -12908,8 +13936,12 @@
       <c r="F558">
         <v>222</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G558">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -12928,8 +13960,12 @@
       <c r="F559">
         <v>222</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G559">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -12948,8 +13984,12 @@
       <c r="F560">
         <v>222</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G560">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -12968,8 +14008,12 @@
       <c r="F561">
         <v>222</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G561">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -12988,8 +14032,12 @@
       <c r="F562">
         <v>222</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G562">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -13008,8 +14056,12 @@
       <c r="F563">
         <v>222</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G563">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -13028,8 +14080,12 @@
       <c r="F564">
         <v>222</v>
       </c>
-    </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G564">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -13048,8 +14104,12 @@
       <c r="F565">
         <v>245</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G565">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -13068,8 +14128,12 @@
       <c r="F566">
         <v>245</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G566">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -13088,8 +14152,12 @@
       <c r="F567">
         <v>245</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G567">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -13108,8 +14176,12 @@
       <c r="F568">
         <v>245</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G568">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -13128,8 +14200,12 @@
       <c r="F569">
         <v>245</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G569">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -13148,8 +14224,12 @@
       <c r="F570">
         <v>245</v>
       </c>
-    </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G570">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -13168,8 +14248,12 @@
       <c r="F571">
         <v>245</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G571">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -13188,8 +14272,12 @@
       <c r="F572">
         <v>245</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G572">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -13208,8 +14296,12 @@
       <c r="F573">
         <v>245</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G573">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -13228,8 +14320,12 @@
       <c r="F574">
         <v>245</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G574">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -13248,8 +14344,12 @@
       <c r="F575">
         <v>245</v>
       </c>
-    </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G575">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -13268,8 +14368,12 @@
       <c r="F576">
         <v>245</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G576">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -13288,8 +14392,12 @@
       <c r="F577">
         <v>245</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G577">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -13308,8 +14416,12 @@
       <c r="F578">
         <v>245</v>
       </c>
-    </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G578">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -13328,8 +14440,12 @@
       <c r="F579">
         <v>245</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G579">
+        <f t="shared" ref="G579:G642" si="9">D579-C579</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -13348,8 +14464,12 @@
       <c r="F580">
         <v>245</v>
       </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G580">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -13368,8 +14488,12 @@
       <c r="F581">
         <v>245</v>
       </c>
-    </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G581">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -13388,8 +14512,12 @@
       <c r="F582">
         <v>245</v>
       </c>
-    </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G582">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -13408,8 +14536,12 @@
       <c r="F583">
         <v>245</v>
       </c>
-    </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G583">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -13428,8 +14560,12 @@
       <c r="F584">
         <v>245</v>
       </c>
-    </row>
-    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G584">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -13448,8 +14584,12 @@
       <c r="F585">
         <v>245</v>
       </c>
-    </row>
-    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G585">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -13468,8 +14608,12 @@
       <c r="F586">
         <v>245</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G586">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -13488,8 +14632,12 @@
       <c r="F587">
         <v>245</v>
       </c>
-    </row>
-    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G587">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -13508,8 +14656,12 @@
       <c r="F588">
         <v>245</v>
       </c>
-    </row>
-    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G588">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -13528,8 +14680,12 @@
       <c r="F589">
         <v>245</v>
       </c>
-    </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G589">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -13548,8 +14704,12 @@
       <c r="F590">
         <v>245</v>
       </c>
-    </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G590">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -13568,8 +14728,12 @@
       <c r="F591">
         <v>245</v>
       </c>
-    </row>
-    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G591">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -13588,8 +14752,12 @@
       <c r="F592">
         <v>245</v>
       </c>
-    </row>
-    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G592">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -13608,8 +14776,12 @@
       <c r="F593">
         <v>245</v>
       </c>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G593">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -13628,8 +14800,12 @@
       <c r="F594">
         <v>245</v>
       </c>
-    </row>
-    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G594">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -13648,8 +14824,12 @@
       <c r="F595">
         <v>245</v>
       </c>
-    </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G595">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -13668,8 +14848,12 @@
       <c r="F596">
         <v>245</v>
       </c>
-    </row>
-    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G596">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -13688,8 +14872,12 @@
       <c r="F597">
         <v>245</v>
       </c>
-    </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G597">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -13708,8 +14896,12 @@
       <c r="F598">
         <v>245</v>
       </c>
-    </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G598">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -13728,8 +14920,12 @@
       <c r="F599">
         <v>245</v>
       </c>
-    </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G599">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -13748,8 +14944,12 @@
       <c r="F600">
         <v>245</v>
       </c>
-    </row>
-    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G600">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -13768,8 +14968,12 @@
       <c r="F601">
         <v>245</v>
       </c>
-    </row>
-    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G601">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -13788,8 +14992,12 @@
       <c r="F602">
         <v>245</v>
       </c>
-    </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G602">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -13808,8 +15016,12 @@
       <c r="F603">
         <v>245</v>
       </c>
-    </row>
-    <row r="604" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G603">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -13828,8 +15040,12 @@
       <c r="F604">
         <v>245</v>
       </c>
-    </row>
-    <row r="605" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G604">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -13848,8 +15064,12 @@
       <c r="F605">
         <v>245</v>
       </c>
-    </row>
-    <row r="606" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G605">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -13868,8 +15088,12 @@
       <c r="F606">
         <v>245</v>
       </c>
-    </row>
-    <row r="607" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G606">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -13888,8 +15112,12 @@
       <c r="F607">
         <v>245</v>
       </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G607">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -13908,8 +15136,12 @@
       <c r="F608">
         <v>245</v>
       </c>
-    </row>
-    <row r="609" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G608">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -13928,8 +15160,12 @@
       <c r="F609">
         <v>245</v>
       </c>
-    </row>
-    <row r="610" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G609">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -13948,8 +15184,12 @@
       <c r="F610">
         <v>245</v>
       </c>
-    </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G610">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -13968,8 +15208,12 @@
       <c r="F611">
         <v>245</v>
       </c>
-    </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G611">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -13988,8 +15232,12 @@
       <c r="F612">
         <v>245</v>
       </c>
-    </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G612">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -14008,8 +15256,12 @@
       <c r="F613">
         <v>245</v>
       </c>
-    </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G613">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -14028,8 +15280,12 @@
       <c r="F614">
         <v>245</v>
       </c>
-    </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G614">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -14048,8 +15304,12 @@
       <c r="F615">
         <v>245</v>
       </c>
-    </row>
-    <row r="616" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G615">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -14068,8 +15328,12 @@
       <c r="F616">
         <v>245</v>
       </c>
-    </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G616">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -14088,8 +15352,12 @@
       <c r="F617">
         <v>245</v>
       </c>
-    </row>
-    <row r="618" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G617">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -14108,8 +15376,12 @@
       <c r="F618">
         <v>245</v>
       </c>
-    </row>
-    <row r="619" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G618">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -14128,8 +15400,12 @@
       <c r="F619">
         <v>245</v>
       </c>
-    </row>
-    <row r="620" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G619">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -14148,8 +15424,12 @@
       <c r="F620">
         <v>245</v>
       </c>
-    </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G620">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -14168,8 +15448,12 @@
       <c r="F621">
         <v>245</v>
       </c>
-    </row>
-    <row r="622" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G621">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -14188,8 +15472,12 @@
       <c r="F622">
         <v>245</v>
       </c>
-    </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G622">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -14208,8 +15496,12 @@
       <c r="F623">
         <v>245</v>
       </c>
-    </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G623">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -14228,8 +15520,12 @@
       <c r="F624">
         <v>245</v>
       </c>
-    </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G624">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -14248,8 +15544,12 @@
       <c r="F625">
         <v>245</v>
       </c>
-    </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G625">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -14268,8 +15568,12 @@
       <c r="F626">
         <v>245</v>
       </c>
-    </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G626">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -14288,8 +15592,12 @@
       <c r="F627">
         <v>245</v>
       </c>
-    </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G627">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -14308,8 +15616,12 @@
       <c r="F628">
         <v>245</v>
       </c>
-    </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G628">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -14328,8 +15640,12 @@
       <c r="F629">
         <v>245</v>
       </c>
-    </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G629">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -14348,8 +15664,12 @@
       <c r="F630">
         <v>245</v>
       </c>
-    </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G630">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -14368,8 +15688,12 @@
       <c r="F631">
         <v>245</v>
       </c>
-    </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G631">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -14388,8 +15712,12 @@
       <c r="F632">
         <v>245</v>
       </c>
-    </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G632">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -14408,8 +15736,12 @@
       <c r="F633">
         <v>245</v>
       </c>
-    </row>
-    <row r="634" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G633">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -14428,8 +15760,12 @@
       <c r="F634">
         <v>245</v>
       </c>
-    </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G634">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -14448,8 +15784,12 @@
       <c r="F635">
         <v>245</v>
       </c>
-    </row>
-    <row r="636" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G635">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -14468,8 +15808,12 @@
       <c r="F636">
         <v>245</v>
       </c>
-    </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G636">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -14488,8 +15832,12 @@
       <c r="F637">
         <v>245</v>
       </c>
-    </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G637">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -14508,8 +15856,12 @@
       <c r="F638">
         <v>245</v>
       </c>
-    </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G638">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -14528,8 +15880,12 @@
       <c r="F639">
         <v>245</v>
       </c>
-    </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G639">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -14548,8 +15904,12 @@
       <c r="F640">
         <v>245</v>
       </c>
-    </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G640">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -14568,8 +15928,12 @@
       <c r="F641">
         <v>245</v>
       </c>
-    </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G641">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -14588,8 +15952,12 @@
       <c r="F642">
         <v>268</v>
       </c>
-    </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G642">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -14608,8 +15976,12 @@
       <c r="F643">
         <v>268</v>
       </c>
-    </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G643">
+        <f t="shared" ref="G643:G706" si="10">D643-C643</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -14628,8 +16000,12 @@
       <c r="F644">
         <v>268</v>
       </c>
-    </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G644">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -14648,8 +16024,12 @@
       <c r="F645">
         <v>268</v>
       </c>
-    </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G645">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -14668,8 +16048,12 @@
       <c r="F646">
         <v>268</v>
       </c>
-    </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G646">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -14688,8 +16072,12 @@
       <c r="F647">
         <v>268</v>
       </c>
-    </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G647">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -14708,8 +16096,12 @@
       <c r="F648">
         <v>268</v>
       </c>
-    </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G648">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -14728,8 +16120,12 @@
       <c r="F649">
         <v>268</v>
       </c>
-    </row>
-    <row r="650" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G649">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -14748,8 +16144,12 @@
       <c r="F650">
         <v>268</v>
       </c>
-    </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G650">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -14768,8 +16168,12 @@
       <c r="F651">
         <v>268</v>
       </c>
-    </row>
-    <row r="652" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G651">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -14788,8 +16192,12 @@
       <c r="F652">
         <v>268</v>
       </c>
-    </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G652">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -14808,8 +16216,12 @@
       <c r="F653">
         <v>268</v>
       </c>
-    </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G653">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -14828,8 +16240,12 @@
       <c r="F654">
         <v>268</v>
       </c>
-    </row>
-    <row r="655" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G654">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -14848,8 +16264,12 @@
       <c r="F655">
         <v>268</v>
       </c>
-    </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G655">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -14868,8 +16288,12 @@
       <c r="F656">
         <v>268</v>
       </c>
-    </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G656">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -14888,8 +16312,12 @@
       <c r="F657">
         <v>268</v>
       </c>
-    </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G657">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -14908,8 +16336,12 @@
       <c r="F658">
         <v>268</v>
       </c>
-    </row>
-    <row r="659" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G658">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -14928,8 +16360,12 @@
       <c r="F659">
         <v>268</v>
       </c>
-    </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G659">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -14948,8 +16384,12 @@
       <c r="F660">
         <v>268</v>
       </c>
-    </row>
-    <row r="661" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G660">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -14968,8 +16408,12 @@
       <c r="F661">
         <v>268</v>
       </c>
-    </row>
-    <row r="662" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G661">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -14988,8 +16432,12 @@
       <c r="F662">
         <v>268</v>
       </c>
-    </row>
-    <row r="663" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G662">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -15008,8 +16456,12 @@
       <c r="F663">
         <v>268</v>
       </c>
-    </row>
-    <row r="664" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G663">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -15028,8 +16480,12 @@
       <c r="F664">
         <v>268</v>
       </c>
-    </row>
-    <row r="665" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G664">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -15048,8 +16504,12 @@
       <c r="F665">
         <v>268</v>
       </c>
-    </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G665">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -15068,8 +16528,12 @@
       <c r="F666">
         <v>268</v>
       </c>
-    </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G666">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -15088,8 +16552,12 @@
       <c r="F667">
         <v>268</v>
       </c>
-    </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G667">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -15108,8 +16576,12 @@
       <c r="F668">
         <v>268</v>
       </c>
-    </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G668">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -15128,8 +16600,12 @@
       <c r="F669">
         <v>268</v>
       </c>
-    </row>
-    <row r="670" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G669">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -15148,8 +16624,12 @@
       <c r="F670">
         <v>268</v>
       </c>
-    </row>
-    <row r="671" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G670">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -15168,8 +16648,12 @@
       <c r="F671">
         <v>268</v>
       </c>
-    </row>
-    <row r="672" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G671">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -15188,8 +16672,12 @@
       <c r="F672">
         <v>268</v>
       </c>
-    </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G672">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -15208,8 +16696,12 @@
       <c r="F673">
         <v>268</v>
       </c>
-    </row>
-    <row r="674" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G673">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -15228,8 +16720,12 @@
       <c r="F674">
         <v>268</v>
       </c>
-    </row>
-    <row r="675" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G674">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -15248,8 +16744,12 @@
       <c r="F675">
         <v>268</v>
       </c>
-    </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G675">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -15268,8 +16768,12 @@
       <c r="F676">
         <v>268</v>
       </c>
-    </row>
-    <row r="677" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G676">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -15288,8 +16792,12 @@
       <c r="F677">
         <v>268</v>
       </c>
-    </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G677">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -15308,8 +16816,12 @@
       <c r="F678">
         <v>268</v>
       </c>
-    </row>
-    <row r="679" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G678">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -15328,8 +16840,12 @@
       <c r="F679">
         <v>268</v>
       </c>
-    </row>
-    <row r="680" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G679">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -15348,8 +16864,12 @@
       <c r="F680">
         <v>268</v>
       </c>
-    </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G680">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -15368,8 +16888,12 @@
       <c r="F681">
         <v>268</v>
       </c>
-    </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G681">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -15388,8 +16912,12 @@
       <c r="F682">
         <v>268</v>
       </c>
-    </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G682">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -15408,8 +16936,12 @@
       <c r="F683">
         <v>268</v>
       </c>
-    </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G683">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -15428,8 +16960,12 @@
       <c r="F684">
         <v>268</v>
       </c>
-    </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G684">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -15448,8 +16984,12 @@
       <c r="F685">
         <v>268</v>
       </c>
-    </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G685">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -15468,8 +17008,12 @@
       <c r="F686">
         <v>268</v>
       </c>
-    </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G686">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -15488,8 +17032,12 @@
       <c r="F687">
         <v>268</v>
       </c>
-    </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G687">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -15508,8 +17056,12 @@
       <c r="F688">
         <v>268</v>
       </c>
-    </row>
-    <row r="689" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G688">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -15528,8 +17080,12 @@
       <c r="F689">
         <v>268</v>
       </c>
-    </row>
-    <row r="690" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G689">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -15548,8 +17104,12 @@
       <c r="F690">
         <v>268</v>
       </c>
-    </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G690">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -15568,8 +17128,12 @@
       <c r="F691">
         <v>268</v>
       </c>
-    </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G691">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -15588,8 +17152,12 @@
       <c r="F692">
         <v>268</v>
       </c>
-    </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G692">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -15608,8 +17176,12 @@
       <c r="F693">
         <v>268</v>
       </c>
-    </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G693">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -15628,8 +17200,12 @@
       <c r="F694">
         <v>268</v>
       </c>
-    </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G694">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -15648,8 +17224,12 @@
       <c r="F695">
         <v>268</v>
       </c>
-    </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G695">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -15668,8 +17248,12 @@
       <c r="F696">
         <v>268</v>
       </c>
-    </row>
-    <row r="697" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G696">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -15688,8 +17272,12 @@
       <c r="F697">
         <v>268</v>
       </c>
-    </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G697">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -15708,8 +17296,12 @@
       <c r="F698">
         <v>268</v>
       </c>
-    </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G698">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -15728,8 +17320,12 @@
       <c r="F699">
         <v>268</v>
       </c>
-    </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G699">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -15748,8 +17344,12 @@
       <c r="F700">
         <v>268</v>
       </c>
-    </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G700">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -15768,8 +17368,12 @@
       <c r="F701">
         <v>268</v>
       </c>
-    </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G701">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -15788,8 +17392,12 @@
       <c r="F702">
         <v>268</v>
       </c>
-    </row>
-    <row r="703" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G702">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -15808,8 +17416,12 @@
       <c r="F703">
         <v>268</v>
       </c>
-    </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G703">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -15828,8 +17440,12 @@
       <c r="F704">
         <v>268</v>
       </c>
-    </row>
-    <row r="705" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G704">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -15848,8 +17464,12 @@
       <c r="F705">
         <v>268</v>
       </c>
-    </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G705">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -15868,8 +17488,12 @@
       <c r="F706">
         <v>268</v>
       </c>
-    </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G706">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -15888,8 +17512,12 @@
       <c r="F707">
         <v>268</v>
       </c>
-    </row>
-    <row r="708" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G707">
+        <f t="shared" ref="G707:G770" si="11">D707-C707</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -15908,8 +17536,12 @@
       <c r="F708">
         <v>268</v>
       </c>
-    </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G708">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -15928,8 +17560,12 @@
       <c r="F709">
         <v>268</v>
       </c>
-    </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G709">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -15948,8 +17584,12 @@
       <c r="F710">
         <v>268</v>
       </c>
-    </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G710">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -15968,8 +17608,12 @@
       <c r="F711">
         <v>268</v>
       </c>
-    </row>
-    <row r="712" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G711">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -15988,8 +17632,12 @@
       <c r="F712">
         <v>268</v>
       </c>
-    </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G712">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -16008,8 +17656,12 @@
       <c r="F713">
         <v>268</v>
       </c>
-    </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G713">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -16028,8 +17680,12 @@
       <c r="F714">
         <v>268</v>
       </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G714">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -16048,8 +17704,12 @@
       <c r="F715">
         <v>291</v>
       </c>
-    </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G715">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -16068,8 +17728,12 @@
       <c r="F716">
         <v>291</v>
       </c>
-    </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G716">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -16088,8 +17752,12 @@
       <c r="F717">
         <v>291</v>
       </c>
-    </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G717">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -16108,8 +17776,12 @@
       <c r="F718">
         <v>291</v>
       </c>
-    </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G718">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -16128,8 +17800,12 @@
       <c r="F719">
         <v>291</v>
       </c>
-    </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G719">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -16148,8 +17824,12 @@
       <c r="F720">
         <v>291</v>
       </c>
-    </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G720">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -16168,8 +17848,12 @@
       <c r="F721">
         <v>291</v>
       </c>
-    </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G721">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -16188,8 +17872,12 @@
       <c r="F722">
         <v>291</v>
       </c>
-    </row>
-    <row r="723" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G722">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -16208,8 +17896,12 @@
       <c r="F723">
         <v>291</v>
       </c>
-    </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G723">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -16228,8 +17920,12 @@
       <c r="F724">
         <v>291</v>
       </c>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G724">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -16248,8 +17944,12 @@
       <c r="F725">
         <v>291</v>
       </c>
-    </row>
-    <row r="726" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G725">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -16268,8 +17968,12 @@
       <c r="F726">
         <v>291</v>
       </c>
-    </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G726">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -16288,8 +17992,12 @@
       <c r="F727">
         <v>291</v>
       </c>
-    </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G727">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -16308,8 +18016,12 @@
       <c r="F728">
         <v>291</v>
       </c>
-    </row>
-    <row r="729" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G728">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -16328,8 +18040,12 @@
       <c r="F729">
         <v>291</v>
       </c>
-    </row>
-    <row r="730" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G729">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -16348,8 +18064,12 @@
       <c r="F730">
         <v>291</v>
       </c>
-    </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G730">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -16368,8 +18088,12 @@
       <c r="F731">
         <v>291</v>
       </c>
-    </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G731">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -16388,8 +18112,12 @@
       <c r="F732">
         <v>291</v>
       </c>
-    </row>
-    <row r="733" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G732">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -16408,8 +18136,12 @@
       <c r="F733">
         <v>291</v>
       </c>
-    </row>
-    <row r="734" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G733">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -16428,8 +18160,12 @@
       <c r="F734">
         <v>291</v>
       </c>
-    </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G734">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -16448,8 +18184,12 @@
       <c r="F735">
         <v>291</v>
       </c>
-    </row>
-    <row r="736" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G735">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -16468,8 +18208,12 @@
       <c r="F736">
         <v>291</v>
       </c>
-    </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G736">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -16488,8 +18232,12 @@
       <c r="F737">
         <v>291</v>
       </c>
-    </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G737">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -16508,8 +18256,12 @@
       <c r="F738">
         <v>291</v>
       </c>
-    </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G738">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -16528,8 +18280,12 @@
       <c r="F739">
         <v>291</v>
       </c>
-    </row>
-    <row r="740" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G739">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -16548,8 +18304,12 @@
       <c r="F740">
         <v>291</v>
       </c>
-    </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G740">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -16568,8 +18328,12 @@
       <c r="F741">
         <v>291</v>
       </c>
-    </row>
-    <row r="742" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G741">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -16588,8 +18352,12 @@
       <c r="F742">
         <v>291</v>
       </c>
-    </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G742">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -16608,8 +18376,12 @@
       <c r="F743">
         <v>291</v>
       </c>
-    </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G743">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -16628,8 +18400,12 @@
       <c r="F744">
         <v>291</v>
       </c>
-    </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G744">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -16648,8 +18424,12 @@
       <c r="F745">
         <v>291</v>
       </c>
-    </row>
-    <row r="746" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G745">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -16668,8 +18448,12 @@
       <c r="F746">
         <v>291</v>
       </c>
-    </row>
-    <row r="747" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G746">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -16688,8 +18472,12 @@
       <c r="F747">
         <v>291</v>
       </c>
-    </row>
-    <row r="748" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G747">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -16708,8 +18496,12 @@
       <c r="F748">
         <v>291</v>
       </c>
-    </row>
-    <row r="749" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G748">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -16728,8 +18520,12 @@
       <c r="F749">
         <v>291</v>
       </c>
-    </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G749">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -16748,8 +18544,12 @@
       <c r="F750">
         <v>291</v>
       </c>
-    </row>
-    <row r="751" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G750">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -16768,8 +18568,12 @@
       <c r="F751">
         <v>291</v>
       </c>
-    </row>
-    <row r="752" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G751">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -16788,8 +18592,12 @@
       <c r="F752">
         <v>291</v>
       </c>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G752">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -16808,8 +18616,12 @@
       <c r="F753">
         <v>291</v>
       </c>
-    </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G753">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -16828,8 +18640,12 @@
       <c r="F754">
         <v>291</v>
       </c>
-    </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G754">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -16848,8 +18664,12 @@
       <c r="F755">
         <v>291</v>
       </c>
-    </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G755">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -16868,8 +18688,12 @@
       <c r="F756">
         <v>291</v>
       </c>
-    </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G756">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -16888,8 +18712,12 @@
       <c r="F757">
         <v>291</v>
       </c>
-    </row>
-    <row r="758" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G757">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -16908,8 +18736,12 @@
       <c r="F758">
         <v>291</v>
       </c>
-    </row>
-    <row r="759" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G758">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -16928,8 +18760,12 @@
       <c r="F759">
         <v>291</v>
       </c>
-    </row>
-    <row r="760" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G759">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -16948,8 +18784,12 @@
       <c r="F760">
         <v>291</v>
       </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G760">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -16968,8 +18808,12 @@
       <c r="F761">
         <v>291</v>
       </c>
-    </row>
-    <row r="762" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G761">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -16988,8 +18832,12 @@
       <c r="F762">
         <v>291</v>
       </c>
-    </row>
-    <row r="763" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G762">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -17008,8 +18856,12 @@
       <c r="F763">
         <v>291</v>
       </c>
-    </row>
-    <row r="764" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G763">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -17028,8 +18880,12 @@
       <c r="F764">
         <v>291</v>
       </c>
-    </row>
-    <row r="765" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G764">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -17048,8 +18904,12 @@
       <c r="F765">
         <v>291</v>
       </c>
-    </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G765">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -17068,8 +18928,12 @@
       <c r="F766">
         <v>291</v>
       </c>
-    </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G766">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -17088,8 +18952,12 @@
       <c r="F767">
         <v>291</v>
       </c>
-    </row>
-    <row r="768" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G767">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -17108,8 +18976,12 @@
       <c r="F768">
         <v>291</v>
       </c>
-    </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G768">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -17128,8 +19000,12 @@
       <c r="F769">
         <v>291</v>
       </c>
-    </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G769">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -17148,8 +19024,12 @@
       <c r="F770">
         <v>291</v>
       </c>
-    </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G770">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -17168,8 +19048,12 @@
       <c r="F771">
         <v>291</v>
       </c>
-    </row>
-    <row r="772" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G771">
+        <f t="shared" ref="G771:G824" si="12">D771-C771</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -17188,8 +19072,12 @@
       <c r="F772">
         <v>291</v>
       </c>
-    </row>
-    <row r="773" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G772">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -17208,8 +19096,12 @@
       <c r="F773">
         <v>291</v>
       </c>
-    </row>
-    <row r="774" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G773">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -17228,8 +19120,12 @@
       <c r="F774">
         <v>291</v>
       </c>
-    </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G774">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -17248,8 +19144,12 @@
       <c r="F775">
         <v>291</v>
       </c>
-    </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G775">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -17268,8 +19168,12 @@
       <c r="F776">
         <v>291</v>
       </c>
-    </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G776">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -17288,8 +19192,12 @@
       <c r="F777">
         <v>291</v>
       </c>
-    </row>
-    <row r="778" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G777">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -17308,8 +19216,12 @@
       <c r="F778">
         <v>291</v>
       </c>
-    </row>
-    <row r="779" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G778">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -17328,8 +19240,12 @@
       <c r="F779">
         <v>291</v>
       </c>
-    </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G779">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -17348,8 +19264,12 @@
       <c r="F780">
         <v>291</v>
       </c>
-    </row>
-    <row r="781" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G780">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -17368,8 +19288,12 @@
       <c r="F781">
         <v>291</v>
       </c>
-    </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G781">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -17388,8 +19312,12 @@
       <c r="F782">
         <v>291</v>
       </c>
-    </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G782">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -17408,8 +19336,12 @@
       <c r="F783">
         <v>291</v>
       </c>
-    </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G783">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -17428,8 +19360,12 @@
       <c r="F784">
         <v>291</v>
       </c>
-    </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G784">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -17448,8 +19384,12 @@
       <c r="F785">
         <v>291</v>
       </c>
-    </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G785">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -17468,8 +19408,12 @@
       <c r="F786">
         <v>291</v>
       </c>
-    </row>
-    <row r="787" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G786">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -17488,8 +19432,12 @@
       <c r="F787">
         <v>291</v>
       </c>
-    </row>
-    <row r="788" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G787">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -17508,8 +19456,12 @@
       <c r="F788">
         <v>291</v>
       </c>
-    </row>
-    <row r="789" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G788">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -17528,8 +19480,12 @@
       <c r="F789">
         <v>291</v>
       </c>
-    </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G789">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -17548,8 +19504,12 @@
       <c r="F790">
         <v>291</v>
       </c>
-    </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G790">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -17568,8 +19528,12 @@
       <c r="F791">
         <v>291</v>
       </c>
-    </row>
-    <row r="792" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G791">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -17588,8 +19552,12 @@
       <c r="F792">
         <v>291</v>
       </c>
-    </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G792">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -17608,8 +19576,12 @@
       <c r="F793">
         <v>291</v>
       </c>
-    </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G793">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -17628,8 +19600,12 @@
       <c r="F794">
         <v>291</v>
       </c>
-    </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G794">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -17648,8 +19624,12 @@
       <c r="F795">
         <v>291</v>
       </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G795">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -17668,8 +19648,12 @@
       <c r="F796">
         <v>291</v>
       </c>
-    </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G796">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -17688,8 +19672,12 @@
       <c r="F797">
         <v>291</v>
       </c>
-    </row>
-    <row r="798" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G797">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -17708,8 +19696,12 @@
       <c r="F798">
         <v>314</v>
       </c>
-    </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G798">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -17728,8 +19720,12 @@
       <c r="F799">
         <v>314</v>
       </c>
-    </row>
-    <row r="800" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G799">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -17748,8 +19744,12 @@
       <c r="F800">
         <v>314</v>
       </c>
-    </row>
-    <row r="801" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G800">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -17768,8 +19768,12 @@
       <c r="F801">
         <v>314</v>
       </c>
-    </row>
-    <row r="802" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G801">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -17788,8 +19792,12 @@
       <c r="F802">
         <v>314</v>
       </c>
-    </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G802">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -17808,8 +19816,12 @@
       <c r="F803">
         <v>314</v>
       </c>
-    </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G803">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -17828,8 +19840,12 @@
       <c r="F804">
         <v>314</v>
       </c>
-    </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G804">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -17848,8 +19864,12 @@
       <c r="F805">
         <v>314</v>
       </c>
-    </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G805">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -17868,8 +19888,12 @@
       <c r="F806">
         <v>314</v>
       </c>
-    </row>
-    <row r="807" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G806">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -17888,8 +19912,12 @@
       <c r="F807">
         <v>314</v>
       </c>
-    </row>
-    <row r="808" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G807">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -17908,8 +19936,12 @@
       <c r="F808">
         <v>314</v>
       </c>
-    </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G808">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -17928,8 +19960,12 @@
       <c r="F809">
         <v>314</v>
       </c>
-    </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G809">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -17948,8 +19984,12 @@
       <c r="F810">
         <v>314</v>
       </c>
-    </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G810">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -17968,8 +20008,12 @@
       <c r="F811">
         <v>314</v>
       </c>
-    </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G811">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -17988,8 +20032,12 @@
       <c r="F812">
         <v>314</v>
       </c>
-    </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G812">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -18008,8 +20056,12 @@
       <c r="F813">
         <v>314</v>
       </c>
-    </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G813">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -18028,8 +20080,12 @@
       <c r="F814">
         <v>314</v>
       </c>
-    </row>
-    <row r="815" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G814">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -18048,8 +20104,12 @@
       <c r="F815">
         <v>314</v>
       </c>
-    </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G815">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -18068,8 +20128,12 @@
       <c r="F816">
         <v>314</v>
       </c>
-    </row>
-    <row r="817" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G816">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -18088,8 +20152,12 @@
       <c r="F817">
         <v>314</v>
       </c>
-    </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G817">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -18108,8 +20176,12 @@
       <c r="F818">
         <v>314</v>
       </c>
-    </row>
-    <row r="819" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G818">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -18128,8 +20200,12 @@
       <c r="F819">
         <v>314</v>
       </c>
-    </row>
-    <row r="820" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G819">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -18148,8 +20224,12 @@
       <c r="F820">
         <v>314</v>
       </c>
-    </row>
-    <row r="821" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G820">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -18168,8 +20248,12 @@
       <c r="F821">
         <v>314</v>
       </c>
-    </row>
-    <row r="822" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G821">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -18188,8 +20272,12 @@
       <c r="F822">
         <v>314</v>
       </c>
-    </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G822">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -18208,8 +20296,12 @@
       <c r="F823">
         <v>314</v>
       </c>
-    </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G823">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -18227,13 +20319,17 @@
       </c>
       <c r="F824">
         <v>314</v>
+      </c>
+      <c r="G824">
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G824" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="e"/>
+        <filter val="I"/>
       </filters>
     </filterColumn>
   </autoFilter>
